--- a/Assets/StreamingAssets/LanguageLocalizatons/[ProjectRoot%EditorConfigs%01.config]language_localization_excel.xlsx
+++ b/Assets/StreamingAssets/LanguageLocalizatons/[ProjectRoot%EditorConfigs%01.config]language_localization_excel.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>KEY</t>
   </si>
@@ -26,16 +29,25 @@
     <t>Janpanese</t>
   </si>
   <si>
-    <t>title[0]</t>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>title[2]</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Text[1]</t>
-  </si>
-  <si>
-    <t>@text_xxx[0]</t>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>Text[3]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>@text_xxx[1]</t>
   </si>
 </sst>
 </file>
@@ -81,43 +93,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -127,21 +148,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -151,21 +175,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -175,32 +202,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/LanguageLocalizatons/[ProjectRoot%EditorConfigs%01.config]language_localization_excel.xlsx
+++ b/Assets/StreamingAssets/LanguageLocalizatons/[ProjectRoot%EditorConfigs%01.config]language_localization_excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -29,25 +29,40 @@
     <t>Janpanese</t>
   </si>
   <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>title[2]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>Text[3]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>@text_xxx[1]</t>
+    <t>[16046]</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>你好</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>[16348]</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>[16106]</t>
+  </si>
+  <si>
+    <t>不好</t>
+  </si>
+  <si>
+    <t>我不好</t>
+  </si>
+  <si>
+    <t>xxxxxx</t>
   </si>
 </sst>
 </file>
@@ -124,21 +139,21 @@
         <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -224,16 +239,16 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/LanguageLocalizatons/[ProjectRoot%EditorConfigs%01.config]language_localization_excel.xlsx
+++ b/Assets/StreamingAssets/LanguageLocalizatons/[ProjectRoot%EditorConfigs%01.config]language_localization_excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -29,40 +29,37 @@
     <t>Janpanese</t>
   </si>
   <si>
-    <t>[16046]</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>你好</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>[16348]</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>世界</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>[16106]</t>
-  </si>
-  <si>
-    <t>不好</t>
-  </si>
-  <si>
-    <t>我不好</t>
-  </si>
-  <si>
-    <t>xxxxxx</t>
+    <t>[15976]</t>
+  </si>
+  <si>
+    <t>@dynamic_text_@dynamic_text_hello</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[16294]</t>
+  </si>
+  <si>
+    <t>@dynamic_text_@dynamic_text_world</t>
+  </si>
+  <si>
+    <t>[16172]</t>
+  </si>
+  <si>
+    <t>@dynamic_text_@dynamic_text_no_good</t>
+  </si>
+  <si>
+    <t>[16154]</t>
+  </si>
+  <si>
+    <t>@dynamic_text_@dynamic_text_new_text</t>
+  </si>
+  <si>
+    <t>[16162]</t>
+  </si>
+  <si>
+    <t>@dynamic_text_are_you_ok</t>
   </si>
 </sst>
 </file>
@@ -139,21 +136,21 @@
         <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -217,7 +214,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -239,16 +236,44 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>15</v>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/LanguageLocalizatons/[ProjectRoot%EditorConfigs%01.config]language_localization_excel.xlsx
+++ b/Assets/StreamingAssets/LanguageLocalizatons/[ProjectRoot%EditorConfigs%01.config]language_localization_excel.xlsx
@@ -29,7 +29,7 @@
     <t>Janpanese</t>
   </si>
   <si>
-    <t>[15976]</t>
+    <t>[16952]</t>
   </si>
   <si>
     <t>@dynamic_text_@dynamic_text_hello</t>
@@ -38,7 +38,7 @@
     <t/>
   </si>
   <si>
-    <t>[16294]</t>
+    <t>[17270]</t>
   </si>
   <si>
     <t>@dynamic_text_@dynamic_text_world</t>
